--- a/exercises/excercises/ex050.MF_pipe.xlsx
+++ b/exercises/excercises/ex050.MF_pipe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0145E5-B27A-4D25-8C02-70940CBFFA48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715627D6-484F-4246-9A24-9F6F5501B00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37140" windowHeight="19980" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -435,7 +435,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -656,7 +656,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -957,79 +957,79 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.45830697683477</c:v>
+                  <c:v>25.866768978948283</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.201054561688416</c:v>
+                  <c:v>22.090332529175051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.206549861766042</c:v>
+                  <c:v>18.673924873749442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.452514971698584</c:v>
+                  <c:v>15.614953596490475</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.926764369512021</c:v>
+                  <c:v>13.414765781108688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.603492224912486</c:v>
+                  <c:v>11.321470027338686</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.456648393632904</c:v>
+                  <c:v>9.6655971502957581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.46759278041938</c:v>
+                  <c:v>8.1343389962150159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.61928674074862</c:v>
+                  <c:v>6.7736481378720894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.896267708752504</c:v>
+                  <c:v>5.6505287658491321</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.284594842496034</c:v>
+                  <c:v>4.5975154769858726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.771928575101001</c:v>
+                  <c:v>3.7717967386293911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104.34146471104317</c:v>
+                  <c:v>3.0058606580406568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.92446493153147</c:v>
+                  <c:v>2.3117352693038136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>117.50618752236585</c:v>
+                  <c:v>1.7105504917966539</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>124.08562038174215</c:v>
+                  <c:v>1.1418009714642339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.66240608327078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>137.23623866706461</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143.80685408794315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150.3740227845376</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156.93754382843179</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>163.4972402668358</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>170.05295537854172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>176.6045496362195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>183.15189822125632</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2643,8 +2643,8 @@
   </sheetPr>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -3032,9 +3032,9 @@
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="S32">
+      <c r="S32" t="str">
         <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C57,E57,E32,PVRstr1_,,id_,Hydr_corr_,D57,D32)</f>
-        <v>1.01971435546875</v>
+        <v>no solution</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3056,10 +3056,10 @@
       </c>
       <c r="E33" s="5">
         <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D33)</f>
-        <v>34.45830697683477</v>
+        <v>25.866768978948283</v>
       </c>
       <c r="F33" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33" s="5">
         <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C33,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D33)</f>
@@ -3090,10 +3090,10 @@
       </c>
       <c r="E34" s="5">
         <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D34)</f>
-        <v>39.201054561688416</v>
+        <v>22.090332529175051</v>
       </c>
       <c r="F34" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5">
         <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C34,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D34)</f>
@@ -3124,10 +3124,10 @@
       </c>
       <c r="E35" s="5">
         <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D35)</f>
-        <v>44.206549861766042</v>
+        <v>18.673924873749442</v>
       </c>
       <c r="F35" s="5">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5">
         <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C35,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D35)</f>
@@ -3158,10 +3158,10 @@
       </c>
       <c r="E36" s="5">
         <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D36)</f>
-        <v>49.452514971698584</v>
+        <v>15.614953596490475</v>
       </c>
       <c r="F36" s="5">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G36" s="5">
         <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C36,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D36)</f>
@@ -3192,10 +3192,10 @@
       </c>
       <c r="E37" s="5">
         <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D37)</f>
-        <v>54.926764369512021</v>
+        <v>13.414765781108688</v>
       </c>
       <c r="F37" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37" s="5">
         <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C37,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D37)</f>
@@ -3226,10 +3226,10 @@
       </c>
       <c r="E38" s="5">
         <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D38)</f>
-        <v>60.603492224912486</v>
+        <v>11.321470027338686</v>
       </c>
       <c r="F38" s="5">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G38" s="5">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C38,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D38)</f>
@@ -3260,10 +3260,10 @@
       </c>
       <c r="E39" s="5">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D39)</f>
-        <v>66.456648393632904</v>
+        <v>9.6655971502957581</v>
       </c>
       <c r="F39" s="5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C39,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D39)</f>
@@ -3294,10 +3294,10 @@
       </c>
       <c r="E40" s="5">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D40)</f>
-        <v>72.46759278041938</v>
+        <v>8.1343389962150159</v>
       </c>
       <c r="F40" s="5">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G40" s="5">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C40,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D40)</f>
@@ -3328,10 +3328,10 @@
       </c>
       <c r="E41" s="5">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D41)</f>
-        <v>78.61928674074862</v>
+        <v>6.7736481378720894</v>
       </c>
       <c r="F41" s="5">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G41" s="5">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C41,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D41)</f>
@@ -3362,10 +3362,10 @@
       </c>
       <c r="E42" s="5">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D42)</f>
-        <v>84.896267708752504</v>
+        <v>5.6505287658491321</v>
       </c>
       <c r="F42" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G42" s="5">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C42,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D42)</f>
@@ -3396,10 +3396,10 @@
       </c>
       <c r="E43" s="5">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D43)</f>
-        <v>91.284594842496034</v>
+        <v>4.5975154769858726</v>
       </c>
       <c r="F43" s="5">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G43" s="5">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C43,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D43)</f>
@@ -3430,10 +3430,10 @@
       </c>
       <c r="E44" s="5">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D44)</f>
-        <v>97.771928575101001</v>
+        <v>3.7717967386293911</v>
       </c>
       <c r="F44" s="5">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G44" s="5">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C44,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D44)</f>
@@ -3464,10 +3464,10 @@
       </c>
       <c r="E45" s="5">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D45)</f>
-        <v>104.34146471104317</v>
+        <v>3.0058606580406568</v>
       </c>
       <c r="F45" s="5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G45" s="5">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C45,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D45)</f>
@@ -3498,10 +3498,10 @@
       </c>
       <c r="E46" s="5">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D46)</f>
-        <v>110.92446493153147</v>
+        <v>2.3117352693038136</v>
       </c>
       <c r="F46" s="5">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G46" s="5">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C46,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D46)</f>
@@ -3532,10 +3532,10 @@
       </c>
       <c r="E47" s="5">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D47)</f>
-        <v>117.50618752236585</v>
+        <v>1.7105504917966539</v>
       </c>
       <c r="F47" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G47" s="5">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C47,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D47)</f>
@@ -3566,10 +3566,10 @@
       </c>
       <c r="E48" s="5">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D48)</f>
-        <v>124.08562038174215</v>
+        <v>1.1418009714642339</v>
       </c>
       <c r="F48" s="5">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G48" s="5">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C48,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D48)</f>
@@ -3600,10 +3600,10 @@
       </c>
       <c r="E49" s="5">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D49)</f>
-        <v>130.66240608327078</v>
+        <v>0</v>
       </c>
       <c r="F49" s="5">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G49" s="5">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C49,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D49)</f>
@@ -3634,10 +3634,10 @@
       </c>
       <c r="E50" s="5">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D50)</f>
-        <v>137.23623866706461</v>
+        <v>0</v>
       </c>
       <c r="F50" s="5">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G50" s="5">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C50,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D50)</f>
@@ -3668,10 +3668,10 @@
       </c>
       <c r="E51" s="5">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D51)</f>
-        <v>143.80685408794315</v>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G51" s="5">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C51,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D51)</f>
@@ -3702,10 +3702,10 @@
       </c>
       <c r="E52" s="5">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D52)</f>
-        <v>150.3740227845376</v>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G52" s="5">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C52,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D52)</f>
@@ -3736,10 +3736,10 @@
       </c>
       <c r="E53" s="5">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D53)</f>
-        <v>156.93754382843179</v>
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G53" s="5">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C53,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D53)</f>
@@ -3770,10 +3770,10 @@
       </c>
       <c r="E54" s="5">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D54)</f>
-        <v>163.4972402668358</v>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G54" s="5">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C54,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D54)</f>
@@ -3804,10 +3804,10 @@
       </c>
       <c r="E55" s="5">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D55)</f>
-        <v>170.05295537854172</v>
+        <v>0</v>
       </c>
       <c r="F55" s="5">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G55" s="5">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C55,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D55)</f>
@@ -3838,10 +3838,10 @@
       </c>
       <c r="E56" s="5">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D56)</f>
-        <v>176.6045496362195</v>
+        <v>0</v>
       </c>
       <c r="F56" s="5">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G56" s="5">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C56,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D56)</f>
@@ -3872,10 +3872,10 @@
       </c>
       <c r="E57" s="5">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D57)</f>
-        <v>183.15189822125632</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G57" s="19">
         <f>p1_</f>

--- a/exercises/excercises/ex050.MF_pipe.xlsx
+++ b/exercises/excercises/ex050.MF_pipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715627D6-484F-4246-9A24-9F6F5501B00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9D21F-427F-4211-886F-D2531354A03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37140" windowHeight="19980" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -23,28 +23,29 @@
     <definedName name="betta_gas2_" localSheetId="0">'MF 1 '!#REF!</definedName>
     <definedName name="betta_gas3_" localSheetId="0">'MF 1 '!#REF!</definedName>
     <definedName name="Bob_" localSheetId="0">'MF 1 '!$C$14</definedName>
-    <definedName name="fw_" localSheetId="0">'MF 1 '!$C$18</definedName>
+    <definedName name="fw_" localSheetId="0">'MF 1 '!$C$19</definedName>
     <definedName name="gamma_gas_" localSheetId="0">'MF 1 '!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">'MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">'MF 1 '!$C$8</definedName>
-    <definedName name="Hydr_corr_">'MF 1 '!$H$20</definedName>
-    <definedName name="id_">'MF 1 '!$C$21</definedName>
-    <definedName name="L_">'MF 1 '!$C$20</definedName>
-    <definedName name="l_test_">'MF 1 '!$V$32:$V$57</definedName>
-    <definedName name="l0_">'MF 1 '!$C$32</definedName>
+    <definedName name="Hydr_corr_">'MF 1 '!$H$21</definedName>
+    <definedName name="id_">'MF 1 '!$C$22</definedName>
+    <definedName name="L_">'MF 1 '!$C$21</definedName>
+    <definedName name="l_test_">'MF 1 '!$V$33:$V$58</definedName>
+    <definedName name="l0_">'MF 1 '!$C$33</definedName>
     <definedName name="muob_" localSheetId="0">'MF 1 '!$C$15</definedName>
-    <definedName name="n_">'MF 1 '!$A$57</definedName>
-    <definedName name="p_test_">'MF 1 '!$W$32:$W$57</definedName>
-    <definedName name="p0_">'MF 1 '!$C$23</definedName>
-    <definedName name="p1_">'MF 1 '!$C$24</definedName>
+    <definedName name="n_">'MF 1 '!$A$58</definedName>
+    <definedName name="p_test_">'MF 1 '!$W$33:$W$58</definedName>
+    <definedName name="p0_">'MF 1 '!$C$24</definedName>
+    <definedName name="p1_">'MF 1 '!$C$25</definedName>
     <definedName name="Pb_" localSheetId="0">'MF 1 '!$C$12</definedName>
-    <definedName name="PVRstr1_">'MF 1 '!$C$28</definedName>
+    <definedName name="PVRstr1_">'MF 1 '!$C$29</definedName>
     <definedName name="Q_" localSheetId="0">'MF 1 '!$C$17</definedName>
+    <definedName name="Q_gas_free_">'MF 1 '!$C$18</definedName>
     <definedName name="Rp_" localSheetId="0">'MF 1 '!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">'MF 1 '!$C$10</definedName>
-    <definedName name="t0_">'MF 1 '!$C$25</definedName>
-    <definedName name="t1_">'MF 1 '!$C$26</definedName>
-    <definedName name="theta_">'MF 1 '!$C$22</definedName>
+    <definedName name="t0_">'MF 1 '!$C$26</definedName>
+    <definedName name="t1_">'MF 1 '!$C$27</definedName>
+    <definedName name="theta_">'MF 1 '!$C$23</definedName>
     <definedName name="Tres_" localSheetId="0">'MF 1 '!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -428,6 +429,44 @@
   </si>
   <si>
     <t>Тестовые данные для подгонки</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>gas free</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>нм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/сут</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -827,7 +866,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$E$31</c:f>
+              <c:f>'MF 1 '!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +901,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$32:$C$57</c:f>
+              <c:f>'MF 1 '!$C$33:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -949,87 +988,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MF 1 '!$E$32:$E$57</c:f>
+              <c:f>'MF 1 '!$E$33:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.866768978948283</c:v>
+                  <c:v>29.583151083258013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.090332529175051</c:v>
+                  <c:v>33.801765388082735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.673924873749442</c:v>
+                  <c:v>38.255229000040401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.614953596490475</c:v>
+                  <c:v>42.987304978782191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.414765781108688</c:v>
+                  <c:v>47.974945294964193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.321470027338686</c:v>
+                  <c:v>53.172257062530193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6655971502957581</c:v>
+                  <c:v>58.543503191890224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1343389962150159</c:v>
+                  <c:v>64.059857245484253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7736481378720894</c:v>
+                  <c:v>69.697069630984544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6505287658491321</c:v>
+                  <c:v>75.434830852226483</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5975154769858726</c:v>
+                  <c:v>81.318514138118758</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7717967386293911</c:v>
+                  <c:v>87.394050508029594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0058606580406568</c:v>
+                  <c:v>93.647650767532141</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3117352693038136</c:v>
+                  <c:v>100.06683777740484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7105504917966539</c:v>
+                  <c:v>106.62019163752962</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1418009714642339</c:v>
+                  <c:v>113.19004748399115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>119.75811716090159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>126.32397571043576</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>132.88726139443145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>139.44766362358564</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>146.00491363875426</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>152.55877722469904</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>159.10904894740781</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>165.655547547841</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>172.1981122248836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1085,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$G$31</c:f>
+              <c:f>'MF 1 '!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1081,7 +1120,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$32:$C$57</c:f>
+              <c:f>'MF 1 '!$C$33:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1168,84 +1207,84 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MF 1 '!$G$32:$G$57</c:f>
+              <c:f>'MF 1 '!$G$33:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>22.525180720432346</c:v>
+                  <c:v>24.420531148025606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.359569149115295</c:v>
+                  <c:v>28.320452582234918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.512287330320824</c:v>
+                  <c:v>32.46576661669242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.965338890259183</c:v>
+                  <c:v>36.83205959405452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.6885230840426</c:v>
+                  <c:v>41.466976330451928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.67860617873977</c:v>
+                  <c:v>46.370921091109437</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.895306418710462</c:v>
+                  <c:v>51.496502614020699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.341631214571386</c:v>
+                  <c:v>56.812295481031271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.986234133566285</c:v>
+                  <c:v>62.274281621682562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.802983475710704</c:v>
+                  <c:v>67.865917275304881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.779168822997846</c:v>
+                  <c:v>73.568110853588522</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.892292929001513</c:v>
+                  <c:v>79.38270377483569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.131438350668901</c:v>
+                  <c:v>85.388697441746729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.480537545930076</c:v>
+                  <c:v>91.574810349592653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.926561872010694</c:v>
+                  <c:v>97.926636161469418</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.46376778893442</c:v>
+                  <c:v>104.44174860389445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.02879299994518</c:v>
+                  <c:v>111.00897222982395</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.5922368622801</c:v>
+                  <c:v>117.57461702239802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.1536453286771</c:v>
+                  <c:v>124.13822806293267</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.71263303178026</c:v>
+                  <c:v>130.6994192725343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.26886997023377</c:v>
+                  <c:v>137.25786006333774</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.82207127375332</c:v>
+                  <c:v>143.81326507783373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.37198923138354</c:v>
+                  <c:v>150.36538619778182</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.91840700809308</c:v>
+                  <c:v>156.91400624603881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.46113363876225</c:v>
+                  <c:v>163.45893396911234</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>170</c:v>
@@ -2148,13 +2187,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>490125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>385464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>130951</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2192,7 +2231,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>64674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2641,31 +2680,31 @@
   <sheetPr codeName="Worksheet_MF1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="13" width="10.1796875" customWidth="1"/>
-    <col min="23" max="26" width="9.1796875" customWidth="1"/>
-    <col min="27" max="27" width="5.81640625" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2677,17 +2716,17 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2703,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2719,7 +2758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2735,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2753,7 +2792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
@@ -2771,7 +2810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2789,7 +2828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2807,7 +2846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2818,7 +2857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
@@ -2829,12 +2868,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -2845,1056 +2884,1067 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>2000</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="13" t="s">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>62</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>90</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="20">
-        <v>170</v>
+      <c r="C24" s="2">
+        <v>25.6</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="20">
+        <v>170</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>40</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2">
-        <v>30</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C29" s="16" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="V30" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="V31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="32.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="14" t="s">
+    <row r="32" spans="1:23" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="V31" t="s">
-        <v>29</v>
-      </c>
-      <c r="W31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>30</v>
-      </c>
-      <c r="E32" s="19">
-        <f>p0_</f>
-        <v>30</v>
-      </c>
-      <c r="F32" s="19">
-        <f>D32</f>
-        <v>30</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="array" ref="G32:H32">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C32,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D32)</f>
-        <v>22.525180720432346</v>
-      </c>
-      <c r="H32" s="5">
-        <v>30</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="S32" t="str">
-        <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C57,E57,E32,PVRstr1_,,id_,Hydr_corr_,D57,D32)</f>
-        <v>no solution</v>
-      </c>
-      <c r="V32">
+      <c r="V32" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="D33" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="18">
-        <f t="shared" ref="C33:C57" si="0">C32+L_/(n_-1)</f>
-        <v>80</v>
-      </c>
-      <c r="D33" s="2">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="array" ref="E33:F33">[1]!MF_p_pipe_atma(Q_,fw_,C33-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D33)</f>
-        <v>25.866768978948283</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="19">
+        <f>p0_</f>
+        <v>25.6</v>
+      </c>
+      <c r="F33" s="19">
+        <f>D33</f>
         <v>30</v>
       </c>
       <c r="G33" s="5">
-        <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C33,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D33)</f>
-        <v>26.359569149115295</v>
+        <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C33,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D33,,,,Q_gas_free_)</f>
+        <v>24.420531148025606</v>
       </c>
       <c r="H33" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
+      <c r="S33" t="str">
+        <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C58,E58,E33,PVRstr1_,,id_,Hydr_corr_,D58,D33)</f>
+        <v>no solution</v>
+      </c>
       <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>2</v>
+      </c>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34:C58" si="0">C33+L_/(n_-1)</f>
         <v>80</v>
       </c>
-      <c r="W33">
-        <v>34.45830697683477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>3</v>
-      </c>
-      <c r="C34" s="18">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
       <c r="D34" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5">
-        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D34)</f>
-        <v>22.090332529175051</v>
+        <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D34,,,,Q_gas_free_)</f>
+        <v>29.583151083258013</v>
       </c>
       <c r="F34" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" s="5">
-        <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C34,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D34)</f>
-        <v>30.512287330320824</v>
+        <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C34,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D34,,,,Q_gas_free_)</f>
+        <v>28.320452582234918</v>
       </c>
       <c r="H34" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="V34">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="W34">
-        <v>39.201054561688416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>34.45830697683477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="18">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D35" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5">
-        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D35)</f>
-        <v>18.673924873749442</v>
+        <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D35,,,,Q_gas_free_)</f>
+        <v>33.801765388082735</v>
       </c>
       <c r="F35" s="5">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G35" s="5">
-        <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C35,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D35)</f>
-        <v>34.965338890259183</v>
+        <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C35,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D35,,,,Q_gas_free_)</f>
+        <v>32.46576661669242</v>
       </c>
       <c r="H35" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="V35">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="W35">
-        <v>44.206549861766042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>39.201054561688416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="18">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D36" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="5">
-        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D36)</f>
-        <v>15.614953596490475</v>
+        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D36,,,,Q_gas_free_)</f>
+        <v>38.255229000040401</v>
       </c>
       <c r="F36" s="5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G36" s="5">
-        <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C36,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D36)</f>
-        <v>39.6885230840426</v>
+        <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C36,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D36,,,,Q_gas_free_)</f>
+        <v>36.83205959405452</v>
       </c>
       <c r="H36" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="V36">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="W36">
-        <v>49.452514971698584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>44.206549861766042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="18">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="D37" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
-        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D37)</f>
-        <v>13.414765781108688</v>
+        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D37,,,,Q_gas_free_)</f>
+        <v>42.987304978782191</v>
       </c>
       <c r="F37" s="5">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G37" s="5">
-        <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C37,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D37)</f>
-        <v>44.67860617873977</v>
+        <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C37,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D37,,,,Q_gas_free_)</f>
+        <v>41.466976330451928</v>
       </c>
       <c r="H37" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="V37">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="W37">
-        <v>54.926764369512021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>49.452514971698584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="18">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="D38" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5">
-        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D38)</f>
-        <v>11.321470027338686</v>
+        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D38,,,,Q_gas_free_)</f>
+        <v>47.974945294964193</v>
       </c>
       <c r="F38" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G38" s="5">
-        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C38,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D38)</f>
-        <v>49.895306418710462</v>
+        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C38,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D38,,,,Q_gas_free_)</f>
+        <v>46.370921091109437</v>
       </c>
       <c r="H38" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="V38">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="W38">
-        <v>60.603492224912486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>54.926764369512021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="18">
         <f t="shared" si="0"/>
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="D39" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="5">
-        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D39)</f>
-        <v>9.6655971502957581</v>
+        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D39,,,,Q_gas_free_)</f>
+        <v>53.172257062530193</v>
       </c>
       <c r="F39" s="5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G39" s="5">
-        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C39,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D39)</f>
-        <v>55.341631214571386</v>
+        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C39,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D39,,,,Q_gas_free_)</f>
+        <v>51.496502614020699</v>
       </c>
       <c r="H39" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="V39">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="W39">
-        <v>66.456648393632904</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>60.603492224912486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="18">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="D40" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="5">
-        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D40)</f>
-        <v>8.1343389962150159</v>
+        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D40,,,,Q_gas_free_)</f>
+        <v>58.543503191890224</v>
       </c>
       <c r="F40" s="5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G40" s="5">
-        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C40,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D40)</f>
-        <v>60.986234133566285</v>
+        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C40,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D40,,,,Q_gas_free_)</f>
+        <v>56.812295481031271</v>
       </c>
       <c r="H40" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="V40">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="W40">
-        <v>72.46759278041938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>66.456648393632904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="18">
         <f t="shared" si="0"/>
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="D41" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="5">
-        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D41)</f>
-        <v>6.7736481378720894</v>
+        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D41,,,,Q_gas_free_)</f>
+        <v>64.059857245484253</v>
       </c>
       <c r="F41" s="5">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G41" s="5">
-        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C41,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D41)</f>
-        <v>66.802983475710704</v>
+        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C41,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D41,,,,Q_gas_free_)</f>
+        <v>62.274281621682562</v>
       </c>
       <c r="H41" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="V41">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="W41">
-        <v>78.61928674074862</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>72.46759278041938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="18">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="D42" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E42" s="5">
-        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D42)</f>
-        <v>5.6505287658491321</v>
+        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D42,,,,Q_gas_free_)</f>
+        <v>69.697069630984544</v>
       </c>
       <c r="F42" s="5">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G42" s="5">
-        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C42,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D42)</f>
-        <v>72.779168822997846</v>
+        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C42,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D42,,,,Q_gas_free_)</f>
+        <v>67.865917275304881</v>
       </c>
       <c r="H42" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="V42">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="W42">
-        <v>84.896267708752504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>78.61928674074862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="18">
         <f t="shared" si="0"/>
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="D43" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="5">
-        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D43)</f>
-        <v>4.5975154769858726</v>
+        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D43,,,,Q_gas_free_)</f>
+        <v>75.434830852226483</v>
       </c>
       <c r="F43" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G43" s="5">
-        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C43,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D43)</f>
-        <v>78.892292929001513</v>
+        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C43,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D43,,,,Q_gas_free_)</f>
+        <v>73.568110853588522</v>
       </c>
       <c r="H43" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="V43">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="W43">
-        <v>91.284594842496034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>84.896267708752504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="18">
         <f t="shared" si="0"/>
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="D44" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5">
-        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D44)</f>
-        <v>3.7717967386293911</v>
+        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D44,,,,Q_gas_free_)</f>
+        <v>81.318514138118758</v>
       </c>
       <c r="F44" s="5">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G44" s="5">
-        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C44,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D44)</f>
-        <v>85.131438350668901</v>
+        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C44,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D44,,,,Q_gas_free_)</f>
+        <v>79.38270377483569</v>
       </c>
       <c r="H44" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="V44">
-        <v>960</v>
+        <v>880</v>
       </c>
       <c r="W44">
-        <v>97.771928575101001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>91.284594842496034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="18">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="D45" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E45" s="5">
-        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D45)</f>
-        <v>3.0058606580406568</v>
+        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D45,,,,Q_gas_free_)</f>
+        <v>87.394050508029594</v>
       </c>
       <c r="F45" s="5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G45" s="5">
-        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C45,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D45)</f>
-        <v>91.480537545930076</v>
+        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C45,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D45,,,,Q_gas_free_)</f>
+        <v>85.388697441746729</v>
       </c>
       <c r="H45" s="5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="V45">
-        <v>1040</v>
+        <v>960</v>
       </c>
       <c r="W45">
-        <v>104.34146471104317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>97.771928575101001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="18">
         <f t="shared" si="0"/>
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="D46" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="5">
-        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D46)</f>
-        <v>2.3117352693038136</v>
+        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D46,,,,Q_gas_free_)</f>
+        <v>93.647650767532141</v>
       </c>
       <c r="F46" s="5">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G46" s="5">
-        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C46,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D46)</f>
-        <v>97.926561872010694</v>
+        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C46,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D46,,,,Q_gas_free_)</f>
+        <v>91.574810349592653</v>
       </c>
       <c r="H46" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="V46">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="W46">
-        <v>110.92446493153147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>104.34146471104317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="18">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="D47" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E47" s="5">
-        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D47)</f>
-        <v>1.7105504917966539</v>
+        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D47,,,,Q_gas_free_)</f>
+        <v>100.06683777740484</v>
       </c>
       <c r="F47" s="5">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5">
-        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C47,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D47)</f>
-        <v>104.46376778893442</v>
+        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C47,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D47,,,,Q_gas_free_)</f>
+        <v>97.926636161469418</v>
       </c>
       <c r="H47" s="5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="V47">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="W47">
-        <v>117.50618752236585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>110.92446493153147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="18">
         <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="D48" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="5">
-        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D48)</f>
-        <v>1.1418009714642339</v>
+        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D48,,,,Q_gas_free_)</f>
+        <v>106.62019163752962</v>
       </c>
       <c r="F48" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G48" s="5">
-        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C48,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D48)</f>
-        <v>111.02879299994518</v>
+        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C48,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D48,,,,Q_gas_free_)</f>
+        <v>104.44174860389445</v>
       </c>
       <c r="H48" s="5">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="V48">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="W48">
-        <v>124.08562038174215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>117.50618752236585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="18">
         <f t="shared" si="0"/>
-        <v>1360</v>
+        <v>1280</v>
       </c>
       <c r="D49" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5">
-        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D49)</f>
-        <v>0</v>
+        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D49,,,,Q_gas_free_)</f>
+        <v>113.19004748399115</v>
       </c>
       <c r="F49" s="5">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G49" s="5">
-        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C49,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D49)</f>
-        <v>117.5922368622801</v>
+        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C49,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D49,,,,Q_gas_free_)</f>
+        <v>111.00897222982395</v>
       </c>
       <c r="H49" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="V49">
-        <v>1360</v>
+        <v>1280</v>
       </c>
       <c r="W49">
-        <v>130.66240608327078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>124.08562038174215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="18">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1360</v>
       </c>
       <c r="D50" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5">
-        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D50)</f>
-        <v>0</v>
+        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D50,,,,Q_gas_free_)</f>
+        <v>119.75811716090159</v>
       </c>
       <c r="F50" s="5">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G50" s="5">
-        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C50,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D50)</f>
-        <v>124.1536453286771</v>
+        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C50,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D50,,,,Q_gas_free_)</f>
+        <v>117.57461702239802</v>
       </c>
       <c r="H50" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="V50">
-        <v>1440</v>
+        <v>1360</v>
       </c>
       <c r="W50">
-        <v>137.23623866706461</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>130.66240608327078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="18">
         <f t="shared" si="0"/>
-        <v>1520</v>
+        <v>1440</v>
       </c>
       <c r="D51" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5">
-        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D51)</f>
-        <v>0</v>
+        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D51,,,,Q_gas_free_)</f>
+        <v>126.32397571043576</v>
       </c>
       <c r="F51" s="5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G51" s="5">
-        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C51,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D51)</f>
-        <v>130.71263303178026</v>
+        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C51,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D51,,,,Q_gas_free_)</f>
+        <v>124.13822806293267</v>
       </c>
       <c r="H51" s="5">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="V51">
-        <v>1520</v>
+        <v>1440</v>
       </c>
       <c r="W51">
-        <v>143.80685408794315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>137.23623866706461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="18">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>1520</v>
       </c>
       <c r="D52" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" s="5">
-        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D52)</f>
-        <v>0</v>
+        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D52,,,,Q_gas_free_)</f>
+        <v>132.88726139443145</v>
       </c>
       <c r="F52" s="5">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G52" s="5">
-        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C52,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D52)</f>
-        <v>137.26886997023377</v>
+        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C52,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D52,,,,Q_gas_free_)</f>
+        <v>130.6994192725343</v>
       </c>
       <c r="H52" s="5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="V52">
-        <v>1600</v>
+        <v>1520</v>
       </c>
       <c r="W52">
-        <v>150.3740227845376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143.80685408794315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" s="18">
         <f t="shared" si="0"/>
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="D53" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" s="5">
-        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D53)</f>
-        <v>0</v>
+        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D53,,,,Q_gas_free_)</f>
+        <v>139.44766362358564</v>
       </c>
       <c r="F53" s="5">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G53" s="5">
-        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C53,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D53)</f>
-        <v>143.82207127375332</v>
+        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C53,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D53,,,,Q_gas_free_)</f>
+        <v>137.25786006333774</v>
       </c>
       <c r="H53" s="5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="V53">
-        <v>1680</v>
+        <v>1600</v>
       </c>
       <c r="W53">
-        <v>156.93754382843179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>150.3740227845376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="18">
         <f t="shared" si="0"/>
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="D54" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" s="5">
-        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D54)</f>
-        <v>0</v>
+        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D54,,,,Q_gas_free_)</f>
+        <v>146.00491363875426</v>
       </c>
       <c r="F54" s="5">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="G54" s="5">
-        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C54,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D54)</f>
-        <v>150.37198923138354</v>
+        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C54,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D54,,,,Q_gas_free_)</f>
+        <v>143.81326507783373</v>
       </c>
       <c r="H54" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="V54">
-        <v>1760</v>
+        <v>1680</v>
       </c>
       <c r="W54">
-        <v>163.4972402668358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>156.93754382843179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="18">
         <f t="shared" si="0"/>
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="D55" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E55" s="5">
-        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D55)</f>
-        <v>0</v>
+        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D55,,,,Q_gas_free_)</f>
+        <v>152.55877722469904</v>
       </c>
       <c r="F55" s="5">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G55" s="5">
-        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C55,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D55)</f>
-        <v>156.91840700809308</v>
+        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C55,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D55,,,,Q_gas_free_)</f>
+        <v>150.36538619778182</v>
       </c>
       <c r="H55" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="V55">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="W55">
-        <v>170.05295537854172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>163.4972402668358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="18">
         <f t="shared" si="0"/>
-        <v>1920</v>
+        <v>1840</v>
       </c>
       <c r="D56" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E56" s="5">
-        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D56)</f>
-        <v>0</v>
+        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D56,,,,Q_gas_free_)</f>
+        <v>159.10904894740781</v>
       </c>
       <c r="F56" s="5">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G56" s="5">
-        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$57-C56,$G$57,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$57,D56)</f>
-        <v>163.46113363876225</v>
+        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C56,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D56,,,,Q_gas_free_)</f>
+        <v>156.91400624603881</v>
       </c>
       <c r="H56" s="5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="V56">
-        <v>1920</v>
+        <v>1840</v>
       </c>
       <c r="W56">
-        <v>176.6045496362195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>170.05295537854172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="18">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1920</v>
       </c>
       <c r="D57" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" s="5">
-        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$32,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$32,D57)</f>
-        <v>0</v>
+        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D57,,,,Q_gas_free_)</f>
+        <v>165.655547547841</v>
       </c>
       <c r="F57" s="5">
-        <v>30</v>
-      </c>
-      <c r="G57" s="19">
-        <f>p1_</f>
-        <v>170</v>
-      </c>
-      <c r="H57" s="19">
-        <f>D57</f>
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C57,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D57,,,,Q_gas_free_)</f>
+        <v>163.45893396911234</v>
+      </c>
+      <c r="H57" s="5">
+        <v>78</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="V57">
+        <v>1920</v>
+      </c>
+      <c r="W57">
+        <v>176.6045496362195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
+        <v>26</v>
+      </c>
+      <c r="C58" s="18">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="W57">
+      <c r="D58" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D58,,,,Q_gas_free_)</f>
+        <v>172.1981122248836</v>
+      </c>
+      <c r="F58" s="5">
+        <v>80</v>
+      </c>
+      <c r="G58" s="19">
+        <f>p1_</f>
+        <v>170</v>
+      </c>
+      <c r="H58" s="19">
+        <f>D58</f>
+        <v>80</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="V58">
+        <v>2000</v>
+      </c>
+      <c r="W58">
         <v>183.15189822125632</v>
       </c>
     </row>
-    <row r="58" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
